--- a/ODK-X_surveys/app/config/tables/household_member/forms/household_member/household_member.xlsx
+++ b/ODK-X_surveys/app/config/tables/household_member/forms/household_member/household_member.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="160">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -113,6 +113,39 @@
     <t xml:space="preserve">female</t>
   </si>
   <si>
+    <t xml:space="preserve">ethnicity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iTaukei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ni-vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ni-Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kai_india</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kai India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kai _oma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kai Loma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
     <t xml:space="preserve">relationships</t>
   </si>
   <si>
@@ -152,6 +185,18 @@
     <t xml:space="preserve">Sister/Brother</t>
   </si>
   <si>
+    <t xml:space="preserve">step_sister_brother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step Sister/Brother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">step_son_daughter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step Son/Daughter</t>
+  </si>
+  <si>
     <t xml:space="preserve">niece_nephew</t>
   </si>
   <si>
@@ -308,6 +353,9 @@
     <t xml:space="preserve">notes</t>
   </si>
   <si>
+    <t xml:space="preserve">select_one_with_other</t>
+  </si>
+  <si>
     <t xml:space="preserve">relation_to_head</t>
   </si>
   <si>
@@ -377,6 +425,12 @@
     <t xml:space="preserve">end screen</t>
   </si>
   <si>
+    <t xml:space="preserve">Ethnicity Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose or enter information about ethnicity:</t>
+  </si>
+  <si>
     <t xml:space="preserve">assigns default yes to is_alive</t>
   </si>
   <si>
@@ -389,7 +443,7 @@
     <t xml:space="preserve">Does this person live here full time?</t>
   </si>
   <si>
-    <t xml:space="preserve">Please add any relevant information to help data analysis:</t>
+    <t xml:space="preserve">Please add any relevant information to help data analysis (ie: who do they live with part time if applicable):</t>
   </si>
   <si>
     <t xml:space="preserve">Is this person alive?</t>
@@ -407,7 +461,7 @@
     <t xml:space="preserve">if</t>
   </si>
   <si>
-    <t xml:space="preserve">data('age') &gt;= 18</t>
+    <t xml:space="preserve">data('age') &gt;= 16</t>
   </si>
   <si>
     <t xml:space="preserve">data('age') &gt;=16</t>
@@ -423,12 +477,6 @@
   </si>
   <si>
     <t xml:space="preserve">How many years of education has {{data.first_name}} had?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data('age') &gt;= 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data('age') &gt;= 16</t>
   </si>
   <si>
     <t xml:space="preserve">Does {{data.first_name}} have any children?</t>
@@ -469,7 +517,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -506,14 +554,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,6 +588,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFDBEEF4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFDCE6F2"/>
         <bgColor rgb="FFDBEEF4"/>
       </patternFill>
@@ -564,12 +612,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0097C0"/>
-        <bgColor rgb="FF008080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF8080"/>
         <bgColor rgb="FFFF99CC"/>
       </patternFill>
@@ -578,12 +620,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFDBEEF4"/>
       </patternFill>
     </fill>
     <fill>
@@ -599,7 +635,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -646,6 +682,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top/>
@@ -692,7 +735,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -741,11 +784,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -757,11 +808,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -777,11 +828,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -789,7 +840,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -821,15 +876,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -837,16 +892,60 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -861,51 +960,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -913,19 +972,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -959,7 +1018,7 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF0097C0"/>
+      <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
@@ -1015,10 +1074,10 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="A12:J13 D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.09375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.12109375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.83"/>
@@ -1076,10 +1135,10 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A12:J13 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.22"/>
@@ -1209,13 +1268,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="1" sqref="A12:J13 C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.66"/>
@@ -1282,264 +1341,367 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+    <row r="7" customFormat="false" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" customFormat="false" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="C9" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="12" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" customFormat="false" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="12" t="s">
+      <c r="C15" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="13" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="C16" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="13" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="C17" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="13" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="C18" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="13" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="12" t="s">
+      <c r="C19" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="12" t="s">
+      <c r="C20" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="12" t="s">
+      <c r="C21" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="12" t="s">
+      <c r="C22" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="15"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C24" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="16" t="s">
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C25" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="16" t="s">
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C26" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="16" t="s">
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C27" s="15" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="16" t="s">
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C28" s="15" t="s">
         <v>67</v>
       </c>
-    </row>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="17"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1559,10 +1721,10 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A12:J13 A1"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.49"/>
@@ -1570,11 +1732,11 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
-        <v>68</v>
+      <c r="A1" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>21</v>
@@ -1582,16 +1744,16 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>71</v>
+        <v>85</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>86</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>2</v>
@@ -1599,17 +1761,17 @@
       <c r="C3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>71</v>
+      <c r="A4" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>86</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
@@ -1618,29 +1780,29 @@
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20" t="s">
-        <v>76</v>
+        <v>90</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20" t="s">
-        <v>78</v>
+        <v>92</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20" t="s">
-        <v>80</v>
+        <v>94</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1659,13 +1821,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="1" sqref="A12:J13 C26"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.33"/>
@@ -1675,55 +1837,55 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="23"/>
+      <c r="B2" s="25"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
       <c r="B4" s="6" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,174 +1894,186 @@
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>83</v>
-      </c>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>85</v>
+      <c r="A13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25" t="s">
+      <c r="A15" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>85</v>
-      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>85</v>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>90</v>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>85</v>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25" t="s">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="27"/>
-      <c r="B26" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="23"/>
-    </row>
-    <row r="29" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="23"/>
-    </row>
-    <row r="30" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="23"/>
-    </row>
-    <row r="31" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="23"/>
-    </row>
-    <row r="32" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="23"/>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="30"/>
+      <c r="B28" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="25"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="25"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="25"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="25"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="25"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1916,349 +2090,427 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12:J13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.94921875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="17.984375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="36.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="39.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="30"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="30"/>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="33"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="33"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="33"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="39"/>
+      <c r="B12" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="33"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="33"/>
+    </row>
+    <row r="17" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J17" s="41"/>
+    </row>
+    <row r="18" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J18" s="41"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="33"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="33"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" customFormat="false" ht="33.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="30"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="30"/>
-    </row>
-    <row r="7" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="30"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="30"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="30"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="30"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="30"/>
-    </row>
-    <row r="12" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="30"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="30"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="37" t="s">
+      <c r="G22" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="37" t="s">
+      <c r="F23" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="42"/>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="30"/>
-    </row>
+      <c r="G23" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" s="39"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="16"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="33"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2277,11 +2529,11 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A12:J13 A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.859375" defaultRowHeight="31" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="26.921875" defaultRowHeight="31" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.5"/>
@@ -2298,13 +2550,13 @@
       <c r="C1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="48" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="8" t="s">
@@ -2318,242 +2570,242 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
     </row>
     <row r="3" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
     </row>
     <row r="5" customFormat="false" ht="24.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
     </row>
     <row r="6" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32" t="s">
-        <v>127</v>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
     </row>
     <row r="8" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-    </row>
-    <row r="9" s="14" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-    </row>
-    <row r="10" s="14" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+    </row>
+    <row r="9" s="16" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+    </row>
+    <row r="10" s="16" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="53"/>
+      <c r="B10" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
     </row>
     <row r="11" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="49" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+    </row>
+    <row r="12" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="53"/>
+      <c r="B12" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+    </row>
+    <row r="14" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="56"/>
+      <c r="B14" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="56"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+    </row>
+    <row r="16" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="56"/>
+      <c r="B16" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+    </row>
+    <row r="17" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="56"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+    </row>
+    <row r="18" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="58"/>
+      <c r="B18" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-    </row>
-    <row r="12" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-    </row>
-    <row r="14" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-    </row>
-    <row r="16" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-    </row>
-    <row r="17" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-    </row>
-    <row r="18" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="54"/>
-      <c r="B18" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
     </row>
     <row r="19" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="10"/>
@@ -2561,7 +2813,7 @@
     <row r="20" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="11"/>
       <c r="B20" s="11" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -2572,26 +2824,26 @@
       <c r="I20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
     </row>
     <row r="22" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="11"/>
       <c r="B22" s="11" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -2620,10 +2872,10 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E47" activeCellId="1" sqref="A12:J13 E47"/>
+      <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.95703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.83"/>
@@ -2635,82 +2887,82 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="32"/>
   </cols>
   <sheetData>
-    <row r="1" s="58" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="55" t="s">
+    <row r="1" s="62" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" s="58" t="s">
-        <v>143</v>
+      <c r="B1" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="62" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-    </row>
-    <row r="7" s="14" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="7" s="16" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="I9" s="23"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/ODK-X_surveys/app/config/tables/household_member/forms/household_member/household_member.xlsx
+++ b/ODK-X_surveys/app/config/tables/household_member/forms/household_member/household_member.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="164">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -185,6 +185,12 @@
     <t xml:space="preserve">Sister/Brother</t>
   </si>
   <si>
+    <t xml:space="preserve">step_father_mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step Father/Mother</t>
+  </si>
+  <si>
     <t xml:space="preserve">step_sister_brother</t>
   </si>
   <si>
@@ -347,6 +353,9 @@
     <t xml:space="preserve">integer</t>
   </si>
   <si>
+    <t xml:space="preserve">age_months</t>
+  </si>
+  <si>
     <t xml:space="preserve">sex</t>
   </si>
   <si>
@@ -416,7 +425,10 @@
     <t xml:space="preserve">Add commas between names if more than one.</t>
   </si>
   <si>
-    <t xml:space="preserve">Age:</t>
+    <t xml:space="preserve">Age (years):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age (months):</t>
   </si>
   <si>
     <t xml:space="preserve">Sex:</t>
@@ -1073,11 +1085,11 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.12109375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.13671875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.83"/>
@@ -1138,7 +1150,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.22"/>
@@ -1268,13 +1280,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.66"/>
@@ -1618,28 +1630,28 @@
       <c r="G30" s="16"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="17"/>
+      <c r="A31" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>74</v>
-      </c>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="17"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>75</v>
@@ -1652,7 +1664,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>77</v>
@@ -1665,7 +1677,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>79</v>
@@ -1678,7 +1690,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>81</v>
@@ -1686,11 +1698,19 @@
       <c r="C36" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>84</v>
+      </c>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
@@ -1700,8 +1720,13 @@
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+    </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1724,7 +1749,7 @@
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.49"/>
@@ -1733,10 +1758,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>21</v>
@@ -1744,16 +1769,16 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>2</v>
@@ -1762,16 +1787,16 @@
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>88</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>86</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
@@ -1780,29 +1805,29 @@
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1821,13 +1846,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.33"/>
@@ -1852,40 +1877,40 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
       <c r="B4" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1894,173 +1919,179 @@
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-    </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B14" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
+      <c r="C14" s="27" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>100</v>
-      </c>
+      <c r="A16" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="28"/>
       <c r="B17" s="28" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="28"/>
       <c r="B18" s="28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="28"/>
       <c r="B19" s="28" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="28"/>
       <c r="B20" s="28" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="28"/>
       <c r="B21" s="28" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>100</v>
-      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="28"/>
+      <c r="A27" s="28" t="s">
+        <v>121</v>
+      </c>
       <c r="B27" s="28" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="30"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="25"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="30"/>
+      <c r="B29" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="25"/>
@@ -2073,6 +2104,9 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="25"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="25"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2090,13 +2124,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.984375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="18.00390625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="39.55"/>
   </cols>
@@ -2134,7 +2168,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="34"/>
       <c r="B2" s="34" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -2150,12 +2184,12 @@
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
       <c r="D3" s="36" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E3" s="36"/>
       <c r="F3" s="36"/>
       <c r="G3" s="35" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H3" s="35"/>
       <c r="I3" s="35"/>
@@ -2166,14 +2200,14 @@
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
       <c r="D4" s="36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E4" s="36"/>
       <c r="F4" s="36" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H4" s="35"/>
       <c r="I4" s="35"/>
@@ -2184,14 +2218,14 @@
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
       <c r="D5" s="36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="36" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
@@ -2202,14 +2236,14 @@
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
       <c r="D6" s="36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E6" s="36"/>
       <c r="F6" s="36" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
@@ -2220,12 +2254,12 @@
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
       <c r="D7" s="36" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="37" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H7" s="35"/>
       <c r="I7" s="35"/>
@@ -2236,14 +2270,14 @@
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
       <c r="D8" s="36" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E8" s="36"/>
       <c r="F8" s="36" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
@@ -2253,147 +2287,145 @@
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
-      <c r="D9" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>106</v>
+      <c r="D9" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="33"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
       <c r="J10" s="33"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="33"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="33"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
+      <c r="B13" s="39" t="s">
+        <v>125</v>
+      </c>
       <c r="C13" s="39"/>
-      <c r="D13" s="39" t="s">
-        <v>123</v>
-      </c>
+      <c r="D13" s="39"/>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
-      <c r="G13" s="39" t="s">
-        <v>132</v>
-      </c>
+      <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
       <c r="D14" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>28</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
       <c r="G14" s="39" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
       <c r="J14" s="33"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="39"/>
-      <c r="B15" s="39" t="s">
-        <v>131</v>
-      </c>
+      <c r="B15" s="39"/>
       <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
+      <c r="D15" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>137</v>
+      </c>
       <c r="H15" s="39"/>
       <c r="I15" s="39"/>
       <c r="J15" s="33"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
       <c r="J16" s="33"/>
     </row>
-    <row r="17" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J17" s="41"/>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="33"/>
     </row>
     <row r="18" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2402,115 +2434,134 @@
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="40" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="J18" s="41"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="33"/>
+    <row r="19" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" s="41"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="33"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" customFormat="false" ht="33.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="33"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="42"/>
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
       <c r="D22" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>124</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H22" s="42"/>
       <c r="I22" s="42"/>
       <c r="J22" s="16"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="44" t="s">
+    <row r="23" customFormat="false" ht="33.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="42"/>
+      <c r="F23" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="H23" s="39"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="33"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F24" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="H24" s="39"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="16"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="33"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2533,7 +2584,7 @@
       <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.921875" defaultRowHeight="31" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="26.95703125" defaultRowHeight="31" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.5"/>
@@ -2572,7 +2623,7 @@
     <row r="2" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="49"/>
       <c r="B2" s="49" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C2" s="49"/>
       <c r="D2" s="50"/>
@@ -2598,16 +2649,16 @@
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
       <c r="D4" s="54" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E4" s="54" t="s">
         <v>39</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
@@ -2617,14 +2668,14 @@
       <c r="B5" s="56"/>
       <c r="C5" s="56"/>
       <c r="D5" s="56" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E5" s="56"/>
       <c r="F5" s="56" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G5" s="56" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
@@ -2632,10 +2683,10 @@
     <row r="6" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="35"/>
       <c r="B6" s="35" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D6" s="57"/>
       <c r="E6" s="57"/>
@@ -2643,7 +2694,7 @@
       <c r="G6" s="37"/>
       <c r="H6" s="35"/>
       <c r="I6" s="35" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2651,16 +2702,16 @@
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
       <c r="D7" s="35" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H7" s="35"/>
       <c r="I7" s="35"/>
@@ -2668,7 +2719,7 @@
     <row r="8" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="35"/>
       <c r="B8" s="35" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
@@ -2692,10 +2743,10 @@
     <row r="10" s="16" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="53"/>
       <c r="B10" s="53" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D10" s="53"/>
       <c r="E10" s="53"/>
@@ -2709,14 +2760,14 @@
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
       <c r="D11" s="53" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E11" s="53"/>
       <c r="F11" s="53" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H11" s="53"/>
       <c r="I11" s="53"/>
@@ -2724,7 +2775,7 @@
     <row r="12" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="53"/>
       <c r="B12" s="53" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="53"/>
@@ -2737,10 +2788,10 @@
     <row r="14" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="56"/>
       <c r="B14" s="56" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D14" s="56"/>
       <c r="E14" s="56"/>
@@ -2748,7 +2799,7 @@
       <c r="G14" s="56"/>
       <c r="H14" s="56"/>
       <c r="I14" s="56" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2756,16 +2807,16 @@
       <c r="B15" s="56"/>
       <c r="C15" s="56"/>
       <c r="D15" s="56" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E15" s="56" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="56" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G15" s="56" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H15" s="56"/>
       <c r="I15" s="56"/>
@@ -2773,7 +2824,7 @@
     <row r="16" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="56"/>
       <c r="B16" s="56" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C16" s="56"/>
       <c r="D16" s="56"/>
@@ -2797,7 +2848,7 @@
     <row r="18" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="58"/>
       <c r="B18" s="49" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C18" s="58"/>
       <c r="D18" s="58"/>
@@ -2813,7 +2864,7 @@
     <row r="20" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="11"/>
       <c r="B20" s="11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -2828,14 +2879,14 @@
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
       <c r="D21" s="57" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="57" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
@@ -2843,7 +2894,7 @@
     <row r="22" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="11"/>
       <c r="B22" s="11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -2875,7 +2926,7 @@
       <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.95703125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.9765625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.83"/>
@@ -2892,28 +2943,28 @@
         <v>3</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C1" s="59" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D1" s="60" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E1" s="60" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F1" s="60" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G1" s="60" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H1" s="61" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I1" s="62" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/ODK-X_surveys/app/config/tables/household_member/forms/household_member/household_member.xlsx
+++ b/ODK-X_surveys/app/config/tables/household_member/forms/household_member/household_member.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="162">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -138,12 +138,6 @@
   </si>
   <si>
     <t xml:space="preserve">Kai Loma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
   </si>
   <si>
     <t xml:space="preserve">relationships</t>
@@ -1085,11 +1079,11 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.13671875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.83"/>
@@ -1150,7 +1144,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.22"/>
@@ -1282,11 +1276,11 @@
   </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.66"/>
@@ -1414,15 +1408,9 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>38</v>
-      </c>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
@@ -1431,213 +1419,213 @@
     </row>
     <row r="15" customFormat="false" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
@@ -1651,65 +1639,65 @@
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>76</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
@@ -1749,7 +1737,7 @@
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.49"/>
@@ -1758,10 +1746,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>21</v>
@@ -1769,16 +1757,16 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>2</v>
@@ -1787,16 +1775,16 @@
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
@@ -1805,29 +1793,29 @@
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1852,7 +1840,7 @@
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.33"/>
@@ -1877,40 +1865,40 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
       <c r="B4" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1919,52 +1907,52 @@
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22"/>
       <c r="B12" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1980,12 +1968,12 @@
         <v>28</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -1993,60 +1981,60 @@
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="28"/>
       <c r="B17" s="28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="28"/>
       <c r="B18" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="28"/>
       <c r="B19" s="28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="28"/>
       <c r="B20" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="28"/>
       <c r="B21" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="28"/>
       <c r="B22" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2054,10 +2042,10 @@
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2066,31 +2054,31 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="28"/>
       <c r="B28" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="30"/>
       <c r="B29" s="28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2130,7 +2118,7 @@
       <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.00390625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="18.03125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="39.55"/>
   </cols>
@@ -2168,7 +2156,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="34"/>
       <c r="B2" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -2184,12 +2172,12 @@
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
       <c r="D3" s="36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E3" s="36"/>
       <c r="F3" s="36"/>
       <c r="G3" s="35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H3" s="35"/>
       <c r="I3" s="35"/>
@@ -2200,14 +2188,14 @@
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
       <c r="D4" s="36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E4" s="36"/>
       <c r="F4" s="36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H4" s="35"/>
       <c r="I4" s="35"/>
@@ -2218,14 +2206,14 @@
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
       <c r="D5" s="36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
@@ -2236,14 +2224,14 @@
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
       <c r="D6" s="36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E6" s="36"/>
       <c r="F6" s="36" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
@@ -2254,12 +2242,12 @@
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
       <c r="D7" s="36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="37" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H7" s="35"/>
       <c r="I7" s="35"/>
@@ -2270,14 +2258,14 @@
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
       <c r="D8" s="36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E8" s="36"/>
       <c r="F8" s="36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
@@ -2288,14 +2276,14 @@
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
       <c r="D9" s="36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E9" s="36"/>
       <c r="F9" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
@@ -2306,16 +2294,16 @@
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E10" s="35" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
@@ -2324,7 +2312,7 @@
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="38"/>
       <c r="B11" s="38" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
@@ -2350,7 +2338,7 @@
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="39"/>
       <c r="B13" s="39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
@@ -2366,12 +2354,12 @@
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
       <c r="D14" s="39" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
       <c r="G14" s="39" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
@@ -2382,7 +2370,7 @@
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
       <c r="D15" s="39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E15" s="39" t="s">
         <v>28</v>
@@ -2391,7 +2379,7 @@
         <v>28</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="39"/>
@@ -2400,7 +2388,7 @@
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="39"/>
       <c r="B16" s="39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
@@ -2425,7 +2413,7 @@
     </row>
     <row r="18" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2434,18 +2422,18 @@
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J18" s="41"/>
     </row>
     <row r="19" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2454,12 +2442,12 @@
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J19" s="41"/>
     </row>
@@ -2478,7 +2466,7 @@
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="38"/>
       <c r="B21" s="38" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
@@ -2494,16 +2482,16 @@
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
       <c r="D22" s="42" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E22" s="42" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="43" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H22" s="42"/>
       <c r="I22" s="42"/>
@@ -2514,14 +2502,14 @@
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
       <c r="D23" s="42" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E23" s="42"/>
       <c r="F23" s="42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H23" s="42"/>
       <c r="I23" s="42"/>
@@ -2532,16 +2520,16 @@
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
       <c r="D24" s="44" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E24" s="44" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="44" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G24" s="45" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H24" s="39"/>
       <c r="I24" s="46"/>
@@ -2551,7 +2539,7 @@
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11"/>
       <c r="B25" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -2584,7 +2572,7 @@
       <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.95703125" defaultRowHeight="31" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="26.9921875" defaultRowHeight="31" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.5"/>
@@ -2623,7 +2611,7 @@
     <row r="2" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="49"/>
       <c r="B2" s="49" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" s="49"/>
       <c r="D2" s="50"/>
@@ -2649,16 +2637,16 @@
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
       <c r="D4" s="54" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
@@ -2668,14 +2656,14 @@
       <c r="B5" s="56"/>
       <c r="C5" s="56"/>
       <c r="D5" s="56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E5" s="56"/>
       <c r="F5" s="56" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G5" s="56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
@@ -2683,10 +2671,10 @@
     <row r="6" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="35"/>
       <c r="B6" s="35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D6" s="57"/>
       <c r="E6" s="57"/>
@@ -2694,7 +2682,7 @@
       <c r="G6" s="37"/>
       <c r="H6" s="35"/>
       <c r="I6" s="35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2702,16 +2690,16 @@
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
       <c r="D7" s="35" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H7" s="35"/>
       <c r="I7" s="35"/>
@@ -2719,7 +2707,7 @@
     <row r="8" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="35"/>
       <c r="B8" s="35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
@@ -2743,10 +2731,10 @@
     <row r="10" s="16" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="53"/>
       <c r="B10" s="53" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D10" s="53"/>
       <c r="E10" s="53"/>
@@ -2760,14 +2748,14 @@
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
       <c r="D11" s="53" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E11" s="53"/>
       <c r="F11" s="53" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H11" s="53"/>
       <c r="I11" s="53"/>
@@ -2775,7 +2763,7 @@
     <row r="12" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="53"/>
       <c r="B12" s="53" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="53"/>
@@ -2788,10 +2776,10 @@
     <row r="14" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="56"/>
       <c r="B14" s="56" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D14" s="56"/>
       <c r="E14" s="56"/>
@@ -2799,7 +2787,7 @@
       <c r="G14" s="56"/>
       <c r="H14" s="56"/>
       <c r="I14" s="56" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2807,16 +2795,16 @@
       <c r="B15" s="56"/>
       <c r="C15" s="56"/>
       <c r="D15" s="56" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E15" s="56" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G15" s="56" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H15" s="56"/>
       <c r="I15" s="56"/>
@@ -2824,7 +2812,7 @@
     <row r="16" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="56"/>
       <c r="B16" s="56" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C16" s="56"/>
       <c r="D16" s="56"/>
@@ -2848,7 +2836,7 @@
     <row r="18" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="58"/>
       <c r="B18" s="49" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C18" s="58"/>
       <c r="D18" s="58"/>
@@ -2864,7 +2852,7 @@
     <row r="20" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="11"/>
       <c r="B20" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -2879,14 +2867,14 @@
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
       <c r="D21" s="57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E21" s="57"/>
       <c r="F21" s="57" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
@@ -2894,7 +2882,7 @@
     <row r="22" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="11"/>
       <c r="B22" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -2926,7 +2914,7 @@
       <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9765625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.984375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.83"/>
@@ -2943,28 +2931,28 @@
         <v>3</v>
       </c>
       <c r="B1" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="E1" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="F1" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="G1" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="H1" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="I1" s="62" t="s">
         <v>161</v>
-      </c>
-      <c r="H1" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="I1" s="62" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/ODK-X_surveys/app/config/tables/household_member/forms/household_member/household_member.xlsx
+++ b/ODK-X_surveys/app/config/tables/household_member/forms/household_member/household_member.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="161">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -374,6 +374,9 @@
     <t xml:space="preserve">has_children</t>
   </si>
   <si>
+    <t xml:space="preserve">children_number</t>
+  </si>
+  <si>
     <t xml:space="preserve">birthplace</t>
   </si>
   <si>
@@ -431,12 +434,6 @@
     <t xml:space="preserve">end screen</t>
   </si>
   <si>
-    <t xml:space="preserve">Ethnicity Information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose or enter information about ethnicity:</t>
-  </si>
-  <si>
     <t xml:space="preserve">assigns default yes to is_alive</t>
   </si>
   <si>
@@ -488,7 +485,7 @@
     <t xml:space="preserve">Does {{data.first_name}} have any children?</t>
   </si>
   <si>
-    <t xml:space="preserve">Please take a photo of the household member</t>
+    <t xml:space="preserve">If so, how many?</t>
   </si>
   <si>
     <t xml:space="preserve">query_name</t>
@@ -741,7 +738,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -894,27 +891,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1079,11 +1080,11 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2109375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.83"/>
@@ -1144,7 +1145,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.22"/>
@@ -1276,11 +1277,11 @@
   </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="18.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.66"/>
@@ -1734,10 +1735,10 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.49"/>
@@ -1769,7 +1770,7 @@
         <v>87</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -1834,13 +1835,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.33"/>
@@ -2029,42 +2030,42 @@
         <v>115</v>
       </c>
       <c r="C22" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="28" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
+      <c r="C26" s="2" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="28"/>
       <c r="B28" s="28" t="s">
         <v>121</v>
       </c>
@@ -2073,7 +2074,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="30"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="28" t="s">
         <v>122</v>
       </c>
@@ -2081,8 +2082,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="25"/>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="30"/>
+      <c r="B30" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="25"/>
@@ -2095,6 +2102,9 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="25"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="25"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2115,10 +2125,10 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.03125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="18.1015625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="39.55"/>
   </cols>
@@ -2156,7 +2166,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="34"/>
       <c r="B2" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
@@ -2172,12 +2182,12 @@
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
       <c r="D3" s="36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E3" s="36"/>
       <c r="F3" s="36"/>
       <c r="G3" s="35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H3" s="35"/>
       <c r="I3" s="35"/>
@@ -2195,7 +2205,7 @@
         <v>101</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H4" s="35"/>
       <c r="I4" s="35"/>
@@ -2213,7 +2223,7 @@
         <v>102</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
@@ -2231,7 +2241,7 @@
         <v>103</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
@@ -2242,12 +2252,12 @@
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
       <c r="D7" s="36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H7" s="35"/>
       <c r="I7" s="35"/>
@@ -2265,7 +2275,7 @@
         <v>104</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
@@ -2279,11 +2289,11 @@
         <v>105</v>
       </c>
       <c r="E9" s="36"/>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="38" t="s">
         <v>106</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
@@ -2303,24 +2313,24 @@
         <v>107</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
       <c r="J10" s="33"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
       <c r="J11" s="33"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2336,67 +2346,15 @@
       <c r="J12" s="33"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
       <c r="J13" s="33"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
       <c r="J14" s="33"/>
     </row>
-    <row r="15" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J15" s="33"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
       <c r="J16" s="33"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2413,7 +2371,7 @@
     </row>
     <row r="18" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2422,18 +2380,18 @@
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J18" s="41"/>
     </row>
     <row r="19" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2442,12 +2400,12 @@
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J19" s="41"/>
     </row>
@@ -2464,17 +2422,17 @@
       <c r="J20" s="33"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
       <c r="J21" s="33"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2488,10 +2446,10 @@
         <v>22</v>
       </c>
       <c r="F22" s="43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H22" s="42"/>
       <c r="I22" s="42"/>
@@ -2509,37 +2467,37 @@
         <v>108</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H23" s="42"/>
       <c r="I23" s="42"/>
       <c r="J23" s="16"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="44" t="s">
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="G24" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="H24" s="39"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="47"/>
+      <c r="F24" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24" s="44"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="48"/>
       <c r="K24" s="16"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11"/>
       <c r="B25" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -2566,13 +2524,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.9921875" defaultRowHeight="31" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="27.07421875" defaultRowHeight="31" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.5"/>
@@ -2589,13 +2547,13 @@
       <c r="C1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="49" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="8" t="s">
@@ -2607,290 +2565,305 @@
       <c r="I1" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-    </row>
-    <row r="3" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="54" t="s">
+      <c r="J1" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+    </row>
+    <row r="5" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="55" t="s">
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+    </row>
+    <row r="7" customFormat="false" ht="24.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-    </row>
-    <row r="5" customFormat="false" ht="24.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-    </row>
-    <row r="6" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-    </row>
-    <row r="8" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+    </row>
+    <row r="8" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="35"/>
       <c r="B8" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+    </row>
+    <row r="10" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+    </row>
+    <row r="11" s="16" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+    </row>
+    <row r="12" s="16" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="54"/>
+      <c r="B12" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-    </row>
-    <row r="9" s="16" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-    </row>
-    <row r="10" s="16" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53" t="s">
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+    </row>
+    <row r="13" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+    </row>
+    <row r="14" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="54"/>
+      <c r="B14" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="57"/>
+      <c r="B16" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-    </row>
-    <row r="11" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53" t="s">
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+    </row>
+    <row r="20" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="G11" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-    </row>
-    <row r="12" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-    </row>
-    <row r="14" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="56" t="s">
+      <c r="E20" s="57"/>
+      <c r="F20" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-    </row>
-    <row r="16" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-    </row>
-    <row r="17" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-    </row>
-    <row r="18" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="58"/>
-      <c r="B18" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-    </row>
-    <row r="19" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="10"/>
-    </row>
-    <row r="20" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
     </row>
     <row r="21" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="57" t="s">
-        <v>118</v>
-      </c>
+      <c r="A21" s="57"/>
+      <c r="B21" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
       <c r="E21" s="57"/>
-      <c r="F21" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
     </row>
     <row r="22" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+    </row>
+    <row r="23" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="59"/>
+      <c r="B23" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+    </row>
+    <row r="24" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+    </row>
+    <row r="27" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2914,7 +2887,7 @@
       <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.984375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.0390625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.83"/>
@@ -2926,33 +2899,33 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="32"/>
   </cols>
   <sheetData>
-    <row r="1" s="62" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="59" t="s">
+    <row r="1" s="63" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="D1" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="E1" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="F1" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="G1" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="H1" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="I1" s="63" t="s">
         <v>160</v>
-      </c>
-      <c r="I1" s="62" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2981,14 +2954,14 @@
       <c r="H5" s="25"/>
     </row>
     <row r="7" s="16" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="25"/>
